--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cort</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,40 +543,40 @@
         <v>0.77603</v>
       </c>
       <c r="I2">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J2">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2097636666666667</v>
+        <v>0.193227</v>
       </c>
       <c r="N2">
-        <v>0.629291</v>
+        <v>0.579681</v>
       </c>
       <c r="O2">
-        <v>0.1278901181979287</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P2">
-        <v>0.1278901181979287</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q2">
-        <v>0.05426096608111111</v>
+        <v>0.04998331627</v>
       </c>
       <c r="R2">
-        <v>0.48834869473</v>
+        <v>0.44984984643</v>
       </c>
       <c r="S2">
-        <v>0.09718964674150146</v>
+        <v>0.1102562035446623</v>
       </c>
       <c r="T2">
-        <v>0.0971896467415015</v>
+        <v>0.1102562035446623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>0.77603</v>
       </c>
       <c r="I3">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J3">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>3.280929</v>
       </c>
       <c r="O3">
-        <v>0.6667795941925309</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P3">
-        <v>0.6667795941925311</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q3">
         <v>0.2828999257633333</v>
@@ -638,10 +635,10 @@
         <v>2.54609933187</v>
       </c>
       <c r="S3">
-        <v>0.5067168138332625</v>
+        <v>0.6240376614717151</v>
       </c>
       <c r="T3">
-        <v>0.5067168138332627</v>
+        <v>0.6240376614717152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +667,40 @@
         <v>0.77603</v>
       </c>
       <c r="I4">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J4">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.02033233333333333</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N4">
-        <v>0.060997</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O4">
-        <v>0.01239635326060448</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P4">
-        <v>0.01239635326060449</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q4">
-        <v>0.005259500212222223</v>
+        <v>0.05487782370555554</v>
       </c>
       <c r="R4">
-        <v>0.04733550191</v>
+        <v>0.49390041335</v>
       </c>
       <c r="S4">
-        <v>0.009420565179370696</v>
+        <v>0.1210528022567284</v>
       </c>
       <c r="T4">
-        <v>0.009420565179370699</v>
+        <v>0.1210528022567284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +729,10 @@
         <v>0.77603</v>
       </c>
       <c r="I5">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J5">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +741,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2427203333333333</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N5">
-        <v>0.7281610000000001</v>
+        <v>0.317863</v>
       </c>
       <c r="O5">
-        <v>0.1479833596176045</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P5">
-        <v>0.1479833596176045</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q5">
-        <v>0.06278608675888889</v>
+        <v>0.02740791376555556</v>
       </c>
       <c r="R5">
-        <v>0.5650747808300001</v>
+        <v>0.24667122389</v>
       </c>
       <c r="S5">
-        <v>0.1124594350800162</v>
+        <v>0.06045802368426253</v>
       </c>
       <c r="T5">
-        <v>0.1124594350800162</v>
+        <v>0.06045802368426254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2586766666666667</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H6">
-        <v>0.77603</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I6">
-        <v>0.7599464924341242</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J6">
-        <v>0.7599464924341243</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07372733333333334</v>
+        <v>0.193227</v>
       </c>
       <c r="N6">
-        <v>0.221182</v>
+        <v>0.579681</v>
       </c>
       <c r="O6">
-        <v>0.0449505747313314</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="P6">
-        <v>0.04495057473133141</v>
+        <v>0.1203927045071173</v>
       </c>
       <c r="Q6">
-        <v>0.01907154082888889</v>
+        <v>0.004595260105000001</v>
       </c>
       <c r="R6">
-        <v>0.17164386746</v>
+        <v>0.041357340945</v>
       </c>
       <c r="S6">
-        <v>0.03416003159997327</v>
+        <v>0.01013650096245497</v>
       </c>
       <c r="T6">
-        <v>0.03416003159997328</v>
+        <v>0.01013650096245497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,46 +847,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H7">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I7">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J7">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2097636666666667</v>
+        <v>1.093643</v>
       </c>
       <c r="N7">
-        <v>0.629291</v>
+        <v>3.280929</v>
       </c>
       <c r="O7">
-        <v>0.1278901181979287</v>
+        <v>0.6814091122631787</v>
       </c>
       <c r="P7">
-        <v>0.1278901181979287</v>
+        <v>0.6814091122631788</v>
       </c>
       <c r="Q7">
-        <v>0.01714006888822223</v>
+        <v>0.02600865327833334</v>
       </c>
       <c r="R7">
-        <v>0.154260619994</v>
+        <v>0.234077879505</v>
       </c>
       <c r="S7">
-        <v>0.03070047145642723</v>
+        <v>0.05737145079146363</v>
       </c>
       <c r="T7">
-        <v>0.03070047145642724</v>
+        <v>0.05737145079146363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H8">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I8">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J8">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093643</v>
+        <v>0.2121483333333333</v>
       </c>
       <c r="N8">
-        <v>3.280929</v>
+        <v>0.6364449999999999</v>
       </c>
       <c r="O8">
-        <v>0.6667795941925309</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="P8">
-        <v>0.6667795941925311</v>
+        <v>0.132181898009478</v>
       </c>
       <c r="Q8">
-        <v>0.08936302772066668</v>
+        <v>0.005045240947222222</v>
       </c>
       <c r="R8">
-        <v>0.804267249486</v>
+        <v>0.045407168525</v>
       </c>
       <c r="S8">
-        <v>0.1600627803592683</v>
+        <v>0.01112909575274962</v>
       </c>
       <c r="T8">
-        <v>0.1600627803592684</v>
+        <v>0.01112909575274962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,170 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H9">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I9">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J9">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02033233333333333</v>
+        <v>0.1059543333333333</v>
       </c>
       <c r="N9">
-        <v>0.060997</v>
+        <v>0.317863</v>
       </c>
       <c r="O9">
-        <v>0.01239635326060448</v>
+        <v>0.06601628522022597</v>
       </c>
       <c r="P9">
-        <v>0.01239635326060449</v>
+        <v>0.06601628522022598</v>
       </c>
       <c r="Q9">
-        <v>0.001661382066444445</v>
+        <v>0.002519770637222223</v>
       </c>
       <c r="R9">
-        <v>0.014952438598</v>
+        <v>0.022677935735</v>
       </c>
       <c r="S9">
-        <v>0.002975788081233788</v>
+        <v>0.005558261535963443</v>
       </c>
       <c r="T9">
-        <v>0.002975788081233789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.08171133333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.245134</v>
-      </c>
-      <c r="I10">
-        <v>0.2400535075658758</v>
-      </c>
-      <c r="J10">
-        <v>0.2400535075658758</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2427203333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.7281610000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1479833596176045</v>
-      </c>
-      <c r="P10">
-        <v>0.1479833596176045</v>
-      </c>
-      <c r="Q10">
-        <v>0.01983300206377778</v>
-      </c>
-      <c r="R10">
-        <v>0.178497018574</v>
-      </c>
-      <c r="S10">
-        <v>0.03552392453758835</v>
-      </c>
-      <c r="T10">
-        <v>0.03552392453758835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.08171133333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.245134</v>
-      </c>
-      <c r="I11">
-        <v>0.2400535075658758</v>
-      </c>
-      <c r="J11">
-        <v>0.2400535075658758</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07372733333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.221182</v>
-      </c>
-      <c r="O11">
-        <v>0.0449505747313314</v>
-      </c>
-      <c r="P11">
-        <v>0.04495057473133141</v>
-      </c>
-      <c r="Q11">
-        <v>0.006024358709777779</v>
-      </c>
-      <c r="R11">
-        <v>0.05421922838800001</v>
-      </c>
-      <c r="S11">
-        <v>0.01079054313135813</v>
-      </c>
-      <c r="T11">
-        <v>0.01079054313135813</v>
+        <v>0.005558261535963444</v>
       </c>
     </row>
   </sheetData>
